--- a/dados/horarios_2022_2.xlsx
+++ b/dados/horarios_2022_2.xlsx
@@ -58,7 +58,7 @@
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>cod</text:p>
@@ -74,9 +74,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>fase</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>lista_docentes</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>horario</text:p>
@@ -99,9 +96,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARTURO FATTURI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -122,9 +116,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREI MOREIRA NEVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -145,9 +136,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GIANCARLO DONDONI SALTON; LUCIANO LORES CAIMI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -168,9 +156,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELLE NICOLODELLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -191,9 +176,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MAURICIO FERNANDO BOZATSKI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -214,9 +196,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DENIO DUARTE; MARINA GIROLIMETTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -237,9 +216,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TAINARA VOLAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -260,9 +236,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>KATIA APARECIDA SEGANFREDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 03/10/2022), 2N1234 (17/10/2022 - 07/11/2022), 2N1234 (21/11/2022 - 05/12/2022), 2N1234 (19/12/2022 - 19/12/2022), 2N1234 (30/01/2023 - 06/02/2023), 2N34 (20/02/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -283,9 +256,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARILDA MERENCIA RODRIGUES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -306,9 +276,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOSE CARLOS RADIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -329,9 +296,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CAMILA CARACELLI SCHERMA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -352,9 +316,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>OTO JOAO PETRY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -375,9 +336,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARILDA MERENCIA RODRIGUES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (10/10/2022 - 10/10/2022), 2N1234 (14/11/2022 - 14/11/2022), 2N1234 (12/12/2022 - 12/12/2022), 2N34 (13/02/2023 - 13/02/2023), 2N12 (13/02/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -398,9 +356,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ENISE BARTH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -419,9 +374,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>1; 1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ERIC DUARTE FERREIRA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
@@ -444,9 +396,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TAINARA VOLAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -467,9 +416,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANTONIO MARCOS CORREA NERI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -490,9 +436,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGNES DE FATIMA PEREIRA CRUVINEL; GRACIELA SOARES FONSECA; JANE KELLY OLIVEIRA FRIESTINO; MAIRA ROSSETTO; MARIA ENEIDA DE ALMEIDA; PAULO HENRIQUE DE ARAUJO GUERRA; PAULO ROBERTO BARBATO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M45 (19/09/2022 - 19/12/2022), 4M1 (21/09/2022 - 28/09/2022), 4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 2M45 (30/01/2023 - 27/02/2023), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -513,9 +456,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELA ZANINI; LEANDRO HENRIQUE MANFREDI; LEONARDO BARBOSA LEIRIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -536,9 +476,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEBORA TAVARES DE RESENDE E SILVA; LEANDRO HENRIQUE MANFREDI; LEONARDO BARBOSA LEIRIA; MARINA PIZZI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M23 (19/09/2022 - 19/12/2022), 3M2345 (20/09/2022 - 08/11/2022), 4T123456 (21/09/2022 - 05/10/2022), 6M2345 (23/09/2022 - 21/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 4T6 (09/11/2022 - 07/12/2022), 4T12345 (09/11/2022 - 21/12/2022), 3M2345 (22/11/2022 - 20/12/2022), 2M23 (30/01/2023 - 27/02/2023), 3M2345 (31/01/2023 - 14/02/2023), 4T12345 (01/02/2023 - 01/03/2023), 6M2345 (03/02/2023 - 03/03/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -559,9 +496,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREIA MACHADO CARDOSO; LEONARDO BARBOSA LEIRIA; SARAH FRANCO VIEIRA DE OLIVEIRA MACIEL; SERGIO LUIZ ALVES JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T12345 (20/09/2022 - 08/11/2022), 5T12345 (22/09/2022 - 22/12/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 5T12345 (02/02/2023 - 02/03/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -582,9 +516,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JUSSARA MARIA HABEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T6 (23/09/2022 - 14/10/2022), 6T12345 (23/09/2022 - 21/10/2022), 6T12345 (04/11/2022 - 16/12/2022), 6T12345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -605,9 +536,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANA VANUZA GOBI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -628,9 +556,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELA ZANINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N34 (19/09/2022 - 10/10/2022), 2N12 (19/09/2022 - 17/10/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -651,9 +576,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JANICE TERESINHA REICHERT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T12 (20/09/2022 - 08/11/2022), 4M23 (21/09/2022 - 05/10/2022), 4M23 (19/10/2022 - 26/10/2022), 4M23 (09/11/2022 - 21/12/2022), 3T12 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 4M23 (01/02/2023 - 01/03/2023), 3T12 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -674,9 +596,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA MARIA BASEI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M34 (22/09/2022 - 22/12/2022), 5M34 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -697,9 +616,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GERALDO CENI COELHO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M345 (20/09/2022 - 08/11/2022), 3M345 (22/11/2022 - 20/12/2022), 3M345 (31/01/2023 - 14/02/2023), 3M345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -720,9 +636,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCOS ROBERTO DOS REIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T12 (19/09/2022 - 19/12/2022), 4T345 (21/09/2022 - 05/10/2022), 4T345 (19/10/2022 - 26/10/2022), 4T345 (09/11/2022 - 21/12/2022), 2T12 (30/01/2023 - 27/02/2023), 4T345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -743,9 +656,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DIEGO ANDERSON HOFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T345 (19/09/2022 - 19/12/2022), 6M45 (23/09/2022 - 21/10/2022), 6M45 (04/11/2022 - 16/12/2022), 2T345 (30/01/2023 - 27/02/2023), 6M45 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -766,9 +676,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ELIZIARIO NOE BOEIRA TOLEDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T12 (21/09/2022 - 05/10/2022), 5T12 (22/09/2022 - 22/12/2022), 4T12 (19/10/2022 - 26/10/2022), 4T12 (09/11/2022 - 21/12/2022), 4T12 (01/02/2023 - 01/03/2023), 5T12 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -789,9 +696,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE AUGUSTO MOREIRA LAPIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T3456 (22/09/2022 - 22/12/2022), 5T3456 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -812,9 +716,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEANDRO BORDIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T345 (20/09/2022 - 25/10/2022), 4M45 (21/09/2022 - 05/10/2022), 6T12345 (23/09/2022 - 21/10/2022), 4M45 (19/10/2022 - 26/10/2022), 3T345 (31/01/2023 - 14/02/2023), 4M45 (01/02/2023 - 22/02/2023), 6T12345 (03/02/2023 - 24/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -835,9 +736,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELLE NICOLODELLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T12 (21/09/2022 - 05/10/2022), 5T12 (22/09/2022 - 22/12/2022), 4T12 (19/10/2022 - 26/10/2022), 4T12 (09/11/2022 - 21/12/2022), 4T12 (01/02/2023 - 01/03/2023), 5T12 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -858,9 +756,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MILTON KIST</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M23 (21/09/2022 - 05/10/2022), 6T345 (23/09/2022 - 21/10/2022), 4M23 (19/10/2022 - 26/10/2022), 6T345 (04/11/2022 - 16/12/2022), 4M23 (09/11/2022 - 21/12/2022), 4M23 (01/02/2023 - 01/03/2023), 6T345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -881,9 +776,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROBERTO CARLOS PAVAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M345 (19/09/2022 - 19/12/2022), 5M12 (22/09/2022 - 22/12/2022), 2M345 (30/01/2023 - 20/02/2023), 5M12 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -904,9 +796,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SERGIO LUIZ ALVES JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M345 (20/09/2022 - 08/11/2022), 3M345 (22/11/2022 - 20/12/2022), 3M345 (31/01/2023 - 14/02/2023), 3M345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -927,9 +816,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEISE REGINA LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -950,9 +836,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDERSON STAUDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M12 (19/09/2022 - 19/12/2022), 6M12 (23/09/2022 - 21/10/2022), 6M12 (04/11/2022 - 16/12/2022), 2M12 (30/01/2023 - 27/02/2023), 6M12 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -973,9 +856,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DIEGO ANDERSON HOFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T12 (23/09/2022 - 21/10/2022), 6T12 (04/11/2022 - 16/12/2022), 6T12 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -996,9 +876,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GUILHERME MARTINEZ MIBIELLI; JOAO PAULO BENDER</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M12 (20/09/2022 - 08/11/2022), 4M45 (21/09/2022 - 05/10/2022), 4M45 (19/10/2022 - 26/10/2022), 4M45 (09/11/2022 - 21/12/2022), 3M12 (22/11/2022 - 20/12/2022), 3M12 (31/01/2023 - 14/02/2023), 4M45 (01/02/2023 - 01/03/2023), 3M12 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1019,9 +896,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO PAULO BENDER</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M345 (22/09/2022 - 22/12/2022), 5M345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1042,9 +916,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PEDRO AUGUSTO PEREIRA BORGES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T345 (20/09/2022 - 08/11/2022), 4T345 (21/09/2022 - 05/10/2022), 4T345 (19/10/2022 - 26/10/2022), 4T345 (09/11/2022 - 21/12/2022), 3T345 (22/11/2022 - 20/12/2022), 3T345 (31/01/2023 - 14/02/2023), 4T345 (01/02/2023 - 01/03/2023), 3T345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1065,9 +936,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE DE ALMEIDA MOTA; FERNANDO GRISON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M45 (21/09/2022 - 05/10/2022), 5T345 (22/09/2022 - 22/12/2022), 4M45 (19/10/2022 - 26/10/2022), 4M45 (09/11/2022 - 21/12/2022), 4M45 (01/02/2023 - 01/03/2023), 5T345 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1088,9 +956,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARLINDO CRISTIANO FELIPPE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T123 (23/09/2022 - 21/10/2022), 6T123 (04/11/2022 - 16/12/2022), 6T123 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1111,9 +976,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEISE REGINA LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M345 (22/09/2022 - 22/12/2022), 5M345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1134,9 +996,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GUILHERME MARTINEZ MIBIELLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T12 (19/09/2022 - 19/12/2022), 5T12 (22/09/2022 - 22/12/2022), 2T12 (30/01/2023 - 20/02/2023), 5T12 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1157,9 +1016,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MAURO LEANDRO MENEGOTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T12 (20/09/2022 - 08/11/2022), 4T12 (21/09/2022 - 05/10/2022), 4T12 (19/10/2022 - 26/10/2022), 4T12 (09/11/2022 - 21/12/2022), 3T12 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 4T12 (01/02/2023 - 01/03/2023), 3T12 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1180,9 +1036,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GUILHERME MARTINEZ MIBIELLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1203,9 +1056,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FERNANDO GRISON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T3456 (19/09/2022 - 19/12/2022), 2T3456 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1226,9 +1076,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SELINE NICOLE MARTINS SOARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M45 (20/09/2022 - 08/11/2022), 3M45 (22/11/2022 - 20/12/2022), 3M45 (31/01/2023 - 14/02/2023), 3M45 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1249,9 +1096,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FERNANDO GRISON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M123 (19/09/2022 - 19/12/2022), 2M123 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1272,9 +1116,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEANDRO BASSANI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M12 (21/09/2022 - 05/10/2022), 6M12 (23/09/2022 - 21/10/2022), 4M12 (19/10/2022 - 26/10/2022), 6M12 (04/11/2022 - 16/12/2022), 4M12 (09/11/2022 - 21/12/2022), 4M12 (01/02/2023 - 01/03/2023), 6M12 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1295,9 +1136,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROSILEA GARCIA FRANCA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1318,9 +1156,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDERSON STAUDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M12 (20/09/2022 - 08/11/2022), 5M12 (22/09/2022 - 22/12/2022), 3M12 (22/11/2022 - 20/12/2022), 3M12 (31/01/2023 - 14/02/2023), 5M12 (02/02/2023 - 02/03/2023), 3M12 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1341,9 +1176,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABIANO GEREMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M45 (19/09/2022 - 19/12/2022), 2M45 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1364,9 +1196,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PAMELA NIEDERAUER POMPEO; PAULO ROGER LOPES ALVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T12 (20/09/2022 - 08/11/2022), 3T12 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 3T12 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1387,9 +1216,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARLON LUIZ NEVES DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M345 (22/09/2022 - 22/12/2022), 5M345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1410,9 +1236,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROSILEA GARCIA FRANCA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T1 (23/09/2022 - 21/10/2022), 6T1 (04/11/2022 - 16/12/2022), 6T1 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1433,9 +1256,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE DE ALMEIDA MOTA; JOAO PAULO BENDER; MAURO LEANDRO MENEGOTTO; ROBERTO CARLOS PAVAN; ROSILEA GARCIA FRANCA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T6 (22/09/2022 - 22/12/2022), 5T6 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1456,9 +1276,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE DE ALMEIDA MOTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M345 (20/09/2022 - 08/11/2022), 3M345 (22/11/2022 - 20/12/2022), 3M345 (31/01/2023 - 14/02/2023), 3M345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1479,9 +1296,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO PAULO BENDER</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M345 (19/09/2022 - 19/12/2022), 2M345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1502,9 +1316,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARLON LUIZ NEVES DA SILVA; PAMELA NIEDERAUER POMPEO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M345 (21/09/2022 - 05/10/2022), 4M345 (19/10/2022 - 26/10/2022), 4M345 (09/11/2022 - 21/12/2022), 4M345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1525,9 +1336,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEANDRO BASSANI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022), 4T123 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1548,9 +1356,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MAURO LEANDRO MENEGOTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123 (19/09/2022 - 19/12/2022), 2T123 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1571,9 +1376,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JUSSARA MARIA HABEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1594,9 +1396,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IVAN PAOLO DE PARIS FONTANARI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1 (23/09/2022 - 14/10/2022), 6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 6M2345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1617,9 +1416,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JEAN FRANCO MENDES CALEGARI; JOSEANE DE MENEZES STERNADT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T3456 (19/09/2022 - 05/12/2022), 2T12 (19/09/2022 - 12/12/2022), 2M12345 (05/12/2022 - 12/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1640,9 +1436,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEONARDO BARBOSA LEIRIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T12345 (20/09/2022 - 08/11/2022), 3M2345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 06/12/2022), 3M45 (22/11/2022 - 13/12/2022), 3M23 (22/11/2022 - 20/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1663,9 +1456,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SARAH FRANCO VIEIRA DE OLIVEIRA MACIEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1686,9 +1476,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SERGIO LUIZ ALVES JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M234 (22/09/2022 - 08/12/2022), 6T123 (23/09/2022 - 21/10/2022), 6T123 (04/11/2022 - 16/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1709,9 +1496,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JEFERSON SANTOS ARAUJO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M45 (01/02/2023 - 01/02/2023), 4M23 (01/02/2023 - 08/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1732,9 +1516,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCELA MARTINS FURLAN DE LEO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 14/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1755,9 +1536,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANA VANUZA GOBI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123456 (21/09/2022 - 05/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 4T123456 (09/11/2022 - 21/12/2022), 4T3456 (01/02/2023 - 08/02/2023), 4T12 (01/02/2023 - 15/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1778,9 +1556,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEBORA TAVARES DE RESENDE E SILVA; LEANDRO HENRIQUE MANFREDI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T6 (23/09/2022 - 14/10/2022), 6T12345 (23/09/2022 - 21/10/2022), 6T12345 (04/11/2022 - 16/12/2022), 6T12345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1801,9 +1576,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ZULEIDE MARIA IGNACIO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1824,9 +1596,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARGARETE DULCE BAGATINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T12345 (22/09/2022 - 17/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1847,9 +1616,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GABRIELA GONCALVES DE OLIVEIRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T12345 (24/11/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1870,9 +1636,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEBORA TAVARES DE RESENDE E SILVA; GABRIELA GONCALVES DE OLIVEIRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T123456 (20/09/2022 - 08/11/2022), 3T123456 (22/11/2022 - 20/12/2022), 3T3456 (31/01/2023 - 31/01/2023), 3T12 (31/01/2023 - 07/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1893,9 +1656,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDER GARCIA PARKER; ANA PAULA GERALDI NORBAH; JULYANE FELIPETTE LIMA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (20/09/2022 - 08/11/2022), 4M2345 (21/09/2022 - 05/10/2022), 5M2345 (22/09/2022 - 03/11/2022), 6M2345 (23/09/2022 - 21/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 6M2345 (04/11/2022 - 04/11/2022), 4M2345 (09/11/2022 - 09/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1916,9 +1676,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JEFERSON SANTOS ARAUJO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M45 (19/09/2022 - 12/12/2022), 2M23 (19/09/2022 - 19/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1939,9 +1696,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA PAULA GERALDI NORBAH; DENISE CONSUELO MOSER AGUIAR; JEANE BARROS DE SOUZA LIMA; LARISSA HERMES THOMAS TOMBINI; LEONI TEREZINHA ZENEVICZ; TIAGO LUAN LABRES DE FREITAS; VALERIA SILVANA FAGANELLO MADUREIRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123456 (19/09/2022 - 31/10/2022), 2M2345 (19/09/2022 - 31/10/2022), 3T123456 (20/09/2022 - 01/11/2022), 3M2345 (20/09/2022 - 01/11/2022), 4T123456 (21/09/2022 - 05/10/2022), 4M2345 (21/09/2022 - 05/10/2022), 5M2345 (22/09/2022 - 03/11/2022), 6M2345 (23/09/2022 - 21/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 6M2345 (04/11/2022 - 04/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1962,9 +1716,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JEFERSON SANTOS ARAUJO; LARISSA HERMES THOMAS TOMBINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T123456 (22/09/2022 - 03/11/2022), 6T123456 (23/09/2022 - 21/10/2022), 4T12 (19/10/2022 - 26/10/2022), 4T3456 (26/10/2022 - 26/10/2022), 6T123456 (04/11/2022 - 04/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1985,9 +1736,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDERSON FUNAI; MARCELA MARTINS FURLAN DE LEO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123456 (21/09/2022 - 05/10/2022), 6T123456 (23/09/2022 - 21/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6T123456 (04/11/2022 - 04/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2008,9 +1756,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABIANA BRUM HAAG; GELSON AGUIAR DA SILVA MOSER; SILVIA SILVA DE SOUZA; TATIANA GAFFURI DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 31/10/2022), 3T123456 (20/09/2022 - 01/11/2022), 5M2345 (22/09/2022 - 03/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2031,9 +1776,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA REMIAO LUZARDO; ANA PAULA GERALDI NORBAH; CLAUDIO CLAUDINO DA SILVA FILHO; DANIELA SAVI GEREMIA; ELEINE MAESTRI; KATIA LILIAN SEDREZ CELICH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (20/09/2022 - 01/11/2022), 4M2345 (21/09/2022 - 05/10/2022), 5T12345 (22/09/2022 - 27/10/2022), 4M2345 (19/10/2022 - 26/10/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2054,9 +1796,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CRHIS NETTO DE BRUM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123456 (19/09/2022 - 24/10/2022), 6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 04/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2077,9 +1816,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA REMIAO LUZARDO; ANDERSON FUNAI; CLAUDIO CLAUDINO DA SILVA FILHO; DANIELA SAVI GEREMIA; ELEINE MAESTRI; FABIANA BRUM HAAG; JULIA VALERIA DE OLIVEIRA VARGAS BITENCOURT; KATIA LILIAN SEDREZ CELICH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123456 (19/09/2022 - 19/12/2022), 3T123456 (20/09/2022 - 08/11/2022), 4T123456 (21/09/2022 - 05/10/2022), 5T123456 (22/09/2022 - 22/12/2022), 6T123456 (23/09/2022 - 21/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6T123456 (04/11/2022 - 16/12/2022), 4T123456 (09/11/2022 - 21/12/2022), 3T123456 (22/11/2022 - 20/12/2022), 2T123456 (30/01/2023 - 27/02/2023), 3T123456 (31/01/2023 - 14/02/2023), 4T123456 (01/02/2023 - 01/03/2023), 5T123456 (02/02/2023 - 02/03/2023), 6T123456 (03/02/2023 - 03/03/2023), 3T123456 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2100,9 +1836,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CRHIS NETTO DE BRUM; TASSIANA POTRICH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M1234 (22/09/2022 - 22/12/2022), 5M1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2123,9 +1856,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA FINGER KRATOCHVIL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2146,9 +1876,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DIEGO ANDERSON HOFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 17/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2169,9 +1896,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JULIANO PACCOS CARAM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2192,9 +1916,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>NEWTON MARQUES PERON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2215,9 +1936,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JULIANO PACCOS CARAM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2238,9 +1956,6 @@
             <text:p>4; 4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCELO VICENTIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2261,9 +1976,6 @@
             <text:p>4; 4; 4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLEONICE LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2282,9 +1994,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4; 2; 3</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DERLAN TROMBETTA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
@@ -2307,9 +2016,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARTURO FATTURI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2330,9 +2036,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLOVIS BRONDANI; EDIOVANI ANTONIO GABOARDI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2353,9 +2056,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MAURICIO JOSE SIEWERDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2376,9 +2076,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ODAIR NEITZEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2399,9 +2096,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARTURO FATTURI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2422,9 +2116,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ODAIR NEITZEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2445,9 +2136,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDIOVANI ANTONIO GABOARDI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2468,9 +2156,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROGERIO VAZ TRAPP</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2491,9 +2176,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREY LUIS BINDA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2514,9 +2196,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LIDIA LUCIA ANTONGIOVANNI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2537,9 +2216,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDERSON DO NASCIMENTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2560,9 +2236,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RICARDO MONTEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2583,9 +2256,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RICARDO ALBERTO SCHERMA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2604,9 +2274,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CRISTINA OTSUSCHI</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (05/10/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
@@ -2633,9 +2300,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETICIA RIBEIRO LYRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2656,9 +2320,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>WILLIAM ZANETE BERTOLINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2679,9 +2340,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDUARDO VON DENTZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2702,9 +2360,6 @@
             <text:p>4; 2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROGERIO VAZ TRAPP</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2723,9 +2378,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6; 6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA APARECIDA DOS SANTOS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
@@ -2748,9 +2400,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA MARIA ANDREIS; GISELE LEITE DE LIMA PRIMAM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2771,9 +2420,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA MARIA ANDREIS; GISELE LEITE DE LIMA PRIMAM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2794,9 +2440,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GISELE LEITE DE LIMA PRIMAM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2817,9 +2460,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LIDIA LUCIA ANTONGIOVANNI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2840,9 +2480,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDUARDO VON DENTZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 30/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2863,9 +2500,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>WILLIAN SIMOES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2886,9 +2520,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FERNANDO VOJNIAK</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2909,9 +2540,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARLON BRANDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2932,9 +2560,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARLON BRANDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2955,9 +2580,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CRISTINA OTSUSCHI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>7M12345 (08/10/2022 - 17/12/2022), 7M345 (04/02/2023 - 18/02/2023), 7M12 (04/02/2023 - 25/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2978,9 +2600,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDUARDO VON DENTZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3001,9 +2620,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>WILLIAM ZANETE BERTOLINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3024,9 +2640,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RENATO VIANA BOY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3047,9 +2660,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JAISSON TEIXEIRA LINO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3070,9 +2680,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BRUNO ANTONIO PICOLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3093,9 +2700,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FERNANDO VOJNIAK</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3116,9 +2720,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADILES SAVOLDI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3139,9 +2740,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DELCIO MARQUETTI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (28/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023), 5N1234 (02/03/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3162,9 +2760,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RICARDO MACHADO; VICENTE NEVES DA SILVA RIBEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3183,9 +2778,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANTONIO LUIZ MIRANDA; JAISSON TEIXEIRA LINO</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
@@ -3212,9 +2804,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETICIA RIBEIRO LYRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3235,9 +2824,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELO BRIAO ZANELA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3258,9 +2844,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RENILDA VICENZI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (30/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023), 5N1234 (02/03/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3281,9 +2864,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DELCIO MARQUETTI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (26/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3304,9 +2884,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RENILDA VICENZI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (27/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 2N1234 (27/02/2023 - 27/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3327,9 +2904,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RICARDO MACHADO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (20/10/2022 - 22/12/2022), 2N1234 (24/10/2022 - 14/11/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3350,9 +2924,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RENATO VIANA BOY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 17/10/2022), 5N1234 (22/09/2022 - 13/10/2022), 2N1234 (21/11/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3373,9 +2944,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EMERSON NEVES DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3396,9 +2964,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BRUNO ANTONIO PICOLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3419,9 +2984,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PATRICIA GRAFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3442,9 +3004,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VICENTE NEVES DA SILVA RIBEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3465,9 +3024,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE MAURICIO MATIELLO; VALDETE BONI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3488,9 +3044,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARI JOSE SARTORI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3511,9 +3064,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VICENTE DE PAULA ALMEIDA JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N34 (22/09/2022 - 15/12/2022), 5N12 (22/09/2022 - 22/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3534,9 +3084,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADILES SAVOLDI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3557,9 +3104,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ELIZIARIO NOE BOEIRA TOLEDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3580,9 +3124,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EMERSON NEVES DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3603,9 +3144,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE MAURICIO MATIELLO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (24/11/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3626,9 +3164,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JUSSARA MARIA HABEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 17/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3649,9 +3184,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RUBI GARCIA VIEIRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3672,9 +3204,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IVAN PAOLO DE PARIS FONTANARI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3695,9 +3224,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ELIZIARIO NOE BOEIRA TOLEDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3718,9 +3244,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEONARDO RAFAEL SANTOS LEITAO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3741,9 +3264,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDETE GOMES SOARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3764,9 +3284,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARI JOSE SARTORI; CLAUDETE GOMES SOARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3787,9 +3304,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADILES SAVOLDI; VALDETE BONI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3810,9 +3324,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JEAN FRANCO MENDES CALEGARI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3833,9 +3344,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOVILES VITORIO TREVISOL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3856,9 +3364,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABIO CARMINATI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3879,9 +3384,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANTONIO MARCOS CORREA NERI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3902,9 +3404,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIA MENONCINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3925,9 +3424,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDSON RIBEIRO DOS SANTOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3948,9 +3444,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MAURICIO FERNANDO BOZATSKI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3971,9 +3464,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PAULO RAFAEL BOSING</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -3994,9 +3484,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MILTON KIST</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4017,9 +3504,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VITOR JOSE PETRY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4040,9 +3524,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JANICE TERESINHA REICHERT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4063,9 +3544,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLAUCIO ADRIANO FONTANA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4084,9 +3562,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6; 6; 7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA APARECIDA DOS SANTOS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
@@ -4109,9 +3584,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDSON RIBEIRO DOS SANTOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4132,9 +3604,6 @@
             <text:p>6; 5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DERLAN TROMBETTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 06/10/2022), 5N1234 (20/10/2022 - 10/11/2022), 5N1234 (24/11/2022 - 08/12/2022), 5N1234 (22/12/2022 - 22/12/2022), 5N1234 (02/02/2023 - 09/02/2023), 5N34 (23/02/2023 - 02/03/2023), 5N12 (02/03/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4155,9 +3624,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARISOL VIEIRA MELO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4178,9 +3644,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANTONIO MARCOS CORREA NERI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4201,9 +3664,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PEDRO AUGUSTO PEREIRA BORGES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4224,9 +3684,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VITOR JOSE PETRY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4247,9 +3704,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA MARIA BASEI; LUCIA MENONCINI; NILCE FATIMA SCHEFFER; PAULO RAFAEL BOSING</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4270,9 +3724,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARISOL VIEIRA MELO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4293,9 +3744,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIA MENONCINI; MILTON KIST; NILCE FATIMA SCHEFFER; VITOR JOSE PETRY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>7M2345 (24/09/2022 - 17/12/2022), 7M2345 (04/02/2023 - 04/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4316,9 +3764,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PAULO RAFAEL BOSING</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4339,9 +3784,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MAURICIO JOSE SIEWERDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M1234 (21/09/2022 - 05/10/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 21/12/2022), 4M1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4362,9 +3804,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARILDA MERENCIA RODRIGUES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1234 (20/09/2022 - 08/11/2022), 3M1234 (22/11/2022 - 20/12/2022), 3M1234 (31/01/2023 - 14/02/2023), 3M1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4385,9 +3824,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLEONICE LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (19/09/2022 - 03/10/2022), 2M1234 (17/10/2022 - 07/11/2022), 2M1234 (21/11/2022 - 28/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4408,9 +3844,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RUBI GARCIA VIEIRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (23/09/2022 - 21/10/2022), 6M1234 (04/11/2022 - 16/12/2022), 6M1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4431,9 +3864,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VICENTE DE PAULA ALMEIDA JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M1234 (22/09/2022 - 22/12/2022), 5M1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4454,9 +3884,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DERLAN TROMBETTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (10/10/2022 - 10/10/2022), 2M1234 (14/11/2022 - 14/11/2022), 2M1234 (12/12/2022 - 12/12/2022), 2M34 (13/02/2023 - 13/02/2023), 2M12 (13/02/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4477,9 +3904,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA APARECIDA DOS SANTOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (23/09/2022 - 07/10/2022), 6M1234 (21/10/2022 - 21/10/2022), 6M1234 (04/11/2022 - 11/11/2022), 6M1234 (25/11/2022 - 09/12/2022), 6M1234 (03/02/2023 - 10/02/2023), 6M34 (24/02/2023 - 03/03/2023), 6M12 (03/03/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4500,9 +3924,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLEONICE LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M1234 (22/09/2022 - 22/12/2022), 5M1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4523,9 +3944,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>OTO JOAO PETRY</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M1234 (21/09/2022 - 05/10/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 21/12/2022), 4M1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4546,9 +3964,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CARLOS ROBERTO FRANCA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (19/09/2022 - 19/12/2022), 2M1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4569,9 +3984,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCELO VICENTIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1234 (20/09/2022 - 08/11/2022), 3M1234 (22/11/2022 - 22/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4592,9 +4004,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE PAULO LORO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1234 (29/11/2022 - 20/12/2022), 3M1234 (31/01/2023 - 14/02/2023), 3M1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4615,9 +4024,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>KATIA APARECIDA SEGANFREDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (14/10/2022 - 14/10/2022), 6M1234 (18/11/2022 - 18/11/2022), 6M1234 (16/12/2022 - 16/12/2022), 6M34 (17/02/2023 - 17/02/2023), 6M12 (17/02/2023 - 24/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4638,9 +4044,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE PAULO LORO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (19/09/2022 - 19/12/2022), 2M1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4661,9 +4064,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LISAURA MARIA BELTRAME</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M1234 (22/09/2022 - 06/10/2022), 5M1234 (20/10/2022 - 10/11/2022), 5M1234 (24/11/2022 - 08/12/2022), 5M1234 (22/12/2022 - 22/12/2022), 5M1234 (02/02/2023 - 09/02/2023), 5M34 (23/02/2023 - 02/03/2023), 5M12 (02/03/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4684,9 +4084,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELA PEDERIVA PENSIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (02/12/2022 - 16/12/2022), 6M1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4707,9 +4104,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA LUCIA MAROCCO MARASCHIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M1234 (21/09/2022 - 05/10/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 21/12/2022), 4M1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4730,9 +4124,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LISAURA MARIA BELTRAME</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (23/09/2022 - 21/10/2022), 6M1234 (04/11/2022 - 25/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4753,9 +4144,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CRISTIANE HORST</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1234 (20/09/2022 - 08/11/2022), 3M1234 (22/11/2022 - 20/12/2022), 3M1234 (31/01/2023 - 14/02/2023), 3M1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4776,9 +4164,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREA SIMOES RIVERO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M1234 (13/10/2022 - 13/10/2022), 5M1234 (17/11/2022 - 17/11/2022), 5M1234 (15/12/2022 - 15/12/2022), 5M34 (16/02/2023 - 16/02/2023), 5M12 (16/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4799,9 +4184,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PATRICIA GRAFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (14/10/2022 - 14/10/2022), 6M1234 (11/11/2022 - 11/11/2022), 6M1234 (24/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4822,9 +4204,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JANE TERESINHA DONINI RODRIGUES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (19/09/2022 - 03/10/2022), 2M1234 (17/10/2022 - 07/11/2022), 2M1234 (21/11/2022 - 05/12/2022), 2M1234 (19/12/2022 - 19/12/2022), 2M1234 (30/01/2023 - 06/02/2023), 2M34 (20/02/2023 - 27/02/2023), 2M12 (27/02/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4845,9 +4224,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DELMIR JOSE VALENTINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1234 (20/09/2022 - 08/11/2022), 3M1234 (22/11/2022 - 20/12/2022), 3M1234 (31/01/2023 - 14/02/2023), 3M1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4868,9 +4244,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IONE INES PINSSON SLONGO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M1234 (21/09/2022 - 05/10/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 21/12/2022), 4M1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4891,9 +4264,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>WILLIAN SIMOES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M1234 (22/09/2022 - 22/12/2022), 5M1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4914,9 +4284,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA MARIA BASEI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M1234 (23/09/2022 - 07/10/2022), 6M1234 (21/10/2022 - 21/10/2022), 6M1234 (04/11/2022 - 04/11/2022), 6M1234 (18/11/2022 - 16/12/2022), 6M1234 (03/02/2023 - 17/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4937,9 +4304,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA LUCIA MAROCCO MARASCHIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (10/10/2022 - 10/10/2022), 2M1234 (14/11/2022 - 14/11/2022), 2M1234 (12/12/2022 - 12/12/2022), 2M34 (13/02/2023 - 13/02/2023), 2M12 (13/02/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4960,9 +4324,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SOLANGE MARIA ALVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M1234 (21/09/2022 - 28/09/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 09/11/2022), 4M1234 (23/11/2022 - 07/12/2022), 4M1234 (21/12/2022 - 21/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -4981,9 +4342,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2; 10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABIANO GEREMIA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1234 (20/09/2022 - 08/11/2022), 3M1234 (22/11/2022 - 20/12/2022), 3M1234 (31/01/2023 - 14/02/2023), 3M1234 (28/02/2023 - 28/02/2023)</text:p>
@@ -5006,9 +4364,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA LUCIA MAROCCO MARASCHIN; SOLANGE MARIA ALVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M1234 (19/09/2022 - 19/12/2022), 2M1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5029,9 +4384,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SOLANGE MARIA ALVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M1234 (05/10/2022 - 05/10/2022), 4M1234 (16/11/2022 - 16/11/2022), 4M1234 (14/12/2022 - 14/12/2022), 4M34 (15/02/2023 - 15/02/2023), 4M12 (15/02/2023 - 22/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5052,9 +4404,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DIEGO ANDERSON HOFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T123 (20/09/2022 - 08/11/2022), 6T56 (23/09/2022 - 21/10/2022), 6T56 (04/11/2022 - 16/12/2022), 3T123 (22/11/2022 - 20/12/2022), 3T3 (31/01/2023 - 31/01/2023), 3T12 (31/01/2023 - 07/02/2023), 6T56 (03/02/2023 - 10/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5075,9 +4424,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEANDRO BORDIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (20/09/2022 - 25/10/2022), 5M2345 (22/09/2022 - 27/10/2022), 3M2345 (31/01/2023 - 14/02/2023), 5M2345 (02/02/2023 - 16/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5098,9 +4444,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARY NEIVA SURDI DA LUZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T56 (20/09/2022 - 08/11/2022), 4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022), 3T56 (22/11/2022 - 20/12/2022), 3T56 (31/01/2023 - 07/02/2023), 4T123 (01/02/2023 - 08/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5121,9 +4464,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA MARIA BASEI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T56 (21/09/2022 - 05/10/2022), 6T123 (23/09/2022 - 21/10/2022), 4T56 (19/10/2022 - 26/10/2022), 6T123 (04/11/2022 - 16/12/2022), 4T56 (09/11/2022 - 21/12/2022), 4T56 (01/02/2023 - 08/02/2023), 6T123 (03/02/2023 - 10/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5144,9 +4484,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANO LORES CAIMI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123 (19/09/2022 - 19/12/2022), 5T56 (22/09/2022 - 22/12/2022), 5T56 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5167,9 +4504,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DENIO DUARTE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T56 (19/09/2022 - 19/12/2022), 6T123 (23/09/2022 - 21/10/2022), 6T123 (04/11/2022 - 16/12/2022), 2T56 (30/01/2023 - 30/01/2023), 6T123 (03/02/2023 - 10/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5190,9 +4524,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FELIPE GRANDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123 (21/09/2022 - 05/10/2022), 6T56 (23/09/2022 - 21/10/2022), 4T123 (19/10/2022 - 26/10/2022), 6T56 (04/11/2022 - 16/12/2022), 4T123 (09/11/2022 - 21/12/2022), 4T123 (01/02/2023 - 08/02/2023), 6T56 (03/02/2023 - 10/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5213,9 +4544,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARINA GIROLIMETTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M45 (19/09/2022 - 19/12/2022), 4M45 (21/09/2022 - 05/10/2022), 4M45 (19/10/2022 - 26/10/2022), 4M45 (09/11/2022 - 21/12/2022), 2M45 (30/01/2023 - 27/02/2023), 4M45 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5236,9 +4564,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RAQUEL APARECIDA PEGORARO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T56 (20/09/2022 - 08/11/2022), 5T123 (22/09/2022 - 22/12/2022), 3T56 (22/11/2022 - 20/12/2022), 3T56 (31/01/2023 - 31/01/2023), 5T12 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5259,9 +4584,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREI DE ALMEIDA SAMPAIO BRAGA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T123 (20/09/2022 - 08/11/2022), 4T56 (21/09/2022 - 05/10/2022), 4T56 (19/10/2022 - 26/10/2022), 4T56 (09/11/2022 - 21/12/2022), 3T123 (22/11/2022 - 20/12/2022), 3T3 (31/01/2023 - 31/01/2023), 3T12 (31/01/2023 - 07/02/2023), 4T56 (01/02/2023 - 08/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5282,9 +4604,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAITON MARCIO DA SILVA; FERNANDO VOJNIAK</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123456 (21/09/2022 - 05/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 4T123456 (09/11/2022 - 21/12/2022), 4T3456 (01/02/2023 - 08/02/2023), 4T12 (01/02/2023 - 15/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5305,9 +4624,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCO AURELIO SPOHN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T56 (20/09/2022 - 08/11/2022), 6T123 (23/09/2022 - 21/10/2022), 6T123 (04/11/2022 - 16/12/2022), 3T56 (22/11/2022 - 20/12/2022), 3T56 (31/01/2023 - 07/02/2023), 6T123 (03/02/2023 - 10/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5328,9 +4644,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RAQUEL APARECIDA PEGORARO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T123 (20/09/2022 - 08/11/2022), 5T56 (22/09/2022 - 22/12/2022), 3T123 (22/11/2022 - 20/12/2022), 3T123 (31/01/2023 - 31/01/2023), 5T56 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5351,9 +4664,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREI DE ALMEIDA SAMPAIO BRAGA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T56 (19/09/2022 - 19/12/2022), 5T123 (22/09/2022 - 22/12/2022), 2T56 (30/01/2023 - 30/01/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5374,9 +4684,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BRAULIO ADRIANO DE MELLO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123 (19/09/2022 - 19/12/2022), 6T56 (23/09/2022 - 21/10/2022), 6T56 (04/11/2022 - 16/12/2022), 2T12 (30/01/2023 - 30/01/2023), 6T56 (03/02/2023 - 10/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5397,9 +4704,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GUILHERME DAL BIANCO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>7M23 (24/09/2022 - 17/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5420,9 +4724,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE MAURICIO MATIELLO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T123456 (21/09/2022 - 05/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 4T123456 (09/11/2022 - 21/12/2022), 4T3456 (01/02/2023 - 08/02/2023), 4T12 (01/02/2023 - 15/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5443,9 +4744,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANO SANICK PADILHA; LUCIANO LORES CAIMI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T56 (19/09/2022 - 19/12/2022), 5T123 (22/09/2022 - 22/12/2022), 5T12 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5466,9 +4764,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANO SANICK PADILHA; LUCIANO LORES CAIMI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T56 (19/09/2022 - 19/12/2022), 5T123 (22/09/2022 - 22/12/2022), 5T12 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5489,9 +4784,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRESSA SEBBEN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123 (19/09/2022 - 19/12/2022), 5T56 (22/09/2022 - 22/12/2022), 5T56 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5512,9 +4804,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREI DE ALMEIDA SAMPAIO BRAGA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T123 (19/09/2022 - 19/12/2022), 5T56 (22/09/2022 - 22/12/2022), 5T56 (02/02/2023 - 02/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5535,9 +4824,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DARLAN CHRISTIANO KROTH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 6M2345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5558,9 +4844,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ELSIO JOSE CORA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 19/12/2022), 2M2345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5581,9 +4864,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BIANCA JUPIARA FORTES SCHARDONG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5604,9 +4884,6 @@
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FRANCIELI PACASSA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5627,9 +4904,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LARISSA DE LIMA TRINDADE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 19/12/2022), 2M2345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5650,9 +4924,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TATIANE SILVA TAVARES MAIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 6M2345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5673,9 +4944,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RONEI ARNO MOCELLIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (20/09/2022 - 08/11/2022), 3M2345 (22/11/2022 - 20/12/2022), 3M2345 (31/01/2023 - 14/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5696,9 +4964,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BIANCA JUPIARA FORTES SCHARDONG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5719,9 +4984,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARI SOTHE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5742,9 +5004,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREI MOREIRA NEVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5765,9 +5024,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MOACIR FRANCISCO DEIMLING; TAINARA VOLAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5788,9 +5044,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RONEI ARNO MOCELLIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 19/12/2022), 2M2345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5811,9 +5064,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FRANCIELI PACASSA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (20/09/2022 - 08/11/2022), 3M2345 (22/11/2022 - 20/12/2022), 3M2345 (31/01/2023 - 14/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5834,9 +5084,6 @@
             <text:p>6</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>KELLY CRISTINA BENETTI TONANI TOSTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 6M2345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5857,9 +5104,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABRICIO SIMPLICIO MAIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 6M2345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5880,9 +5124,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EMERSON MOISES LABES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5903,9 +5144,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>HUMBERTO TONANI TOSTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5926,9 +5164,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SELINE NICOLE MARTINS SOARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 19/12/2022), 2M2345 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5949,9 +5184,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCOS ROBERTO DOS REIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (20/09/2022 - 01/11/2022), 3M1 (20/09/2022 - 08/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5972,9 +5204,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABRICIO SIMPLICIO MAIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M2345 (22/11/2022 - 20/12/2022), 3M2345 (31/01/2023 - 14/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -5995,9 +5224,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ENISE BARTH; TATIANE SILVA TAVARES MAIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M12345 (22/11/2022 - 20/12/2022), 3M2345 (31/01/2023 - 07/02/2023), 3M1 (31/01/2023 - 14/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6018,9 +5244,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DARLAN CHRISTIANO KROTH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6041,9 +5264,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABRICIO SIMPLICIO MAIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6064,9 +5284,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLAUCIO ADRIANO FONTANA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6087,9 +5304,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARI SOTHE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6110,9 +5324,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BIANCA JUPIARA FORTES SCHARDONG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6133,9 +5344,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IVAN PAOLO DE PARIS FONTANARI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6156,9 +5364,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LARISSA DE LIMA TRINDADE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6179,9 +5384,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TATIANE SILVA TAVARES MAIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6202,9 +5404,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MOACIR FRANCISCO DEIMLING; TAINARA VOLAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6225,9 +5424,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RONEI ARNO MOCELLIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6248,9 +5444,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EMERSON MOISES LABES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6271,9 +5464,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ENISE BARTH</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6294,9 +5484,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SELINE NICOLE MARTINS SOARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6317,9 +5504,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BIANCA JUPIARA FORTES SCHARDONG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6340,9 +5524,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>KELLY CRISTINA BENETTI TONANI TOSTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6363,9 +5544,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREI MOREIRA NEVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6386,9 +5564,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLAUCIO ADRIANO FONTANA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6409,9 +5584,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCOS ROBERTO DOS REIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6432,9 +5604,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>HUMBERTO TONANI TOSTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6455,9 +5624,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TAINARA VOLAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6478,9 +5644,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LARISSA DE LIMA TRINDADE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 17/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6501,9 +5664,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARI SOTHE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6524,9 +5684,6 @@
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FRANCIELI PACASSA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (24/11/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6547,9 +5704,6 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DENIO DUARTE; MARINA GIROLIMETTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6570,9 +5724,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PAULO RAFAEL BOSING</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6593,9 +5744,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIA MENONCINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6616,9 +5764,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCO AURELIO SPOHN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6639,9 +5784,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRESSA SEBBEN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6662,9 +5804,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANO SANICK PADILHA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6685,9 +5824,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDSON RIBEIRO DOS SANTOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6708,9 +5844,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GUILHERME DAL BIANCO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6731,9 +5864,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARINA GIROLIMETTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6754,9 +5884,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BRAULIO ADRIANO DE MELLO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6777,9 +5904,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCO AURELIO SPOHN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6800,9 +5924,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PEDRO AUGUSTO PEREIRA BORGES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6823,9 +5944,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARINA GIROLIMETTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6846,9 +5964,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FELIPE GRANDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6869,9 +5984,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SAMUEL DA SILVA FEITOSA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6892,9 +6004,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELO BRIAO ZANELA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6915,9 +6024,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GUILHERME DAL BIANCO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>7M45 (24/09/2022 - 17/12/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6938,9 +6044,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>NOELI GEMELLI REALI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6961,9 +6064,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOVILES VITORIO TREVISOL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 06/10/2022), 5N1234 (20/10/2022 - 10/11/2022), 5N1234 (24/11/2022 - 08/12/2022), 5N1234 (22/12/2022 - 22/12/2022), 5N1234 (02/02/2023 - 09/02/2023), 5N34 (23/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -6984,9 +6084,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCELO VICENTIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7007,9 +6104,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE PAULO LORO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (13/10/2022 - 13/10/2022), 5N1234 (17/11/2022 - 17/11/2022), 5N1234 (15/12/2022 - 15/12/2022), 5N34 (16/02/2023 - 16/02/2023), 5N12 (16/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7030,9 +6124,6 @@
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>NOELI GEMELLI REALI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 18/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7053,9 +6144,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLEONICE LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7076,9 +6164,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELA PEDERIVA PENSIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7099,9 +6184,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DERLAN TROMBETTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7122,9 +6204,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA LUCIA MAROCCO MARASCHIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7145,9 +6224,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>NOELI GEMELLI REALI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (25/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7168,9 +6244,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>NOELI GEMELLI REALI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (13/10/2022 - 13/10/2022), 5N1234 (17/11/2022 - 17/11/2022), 5N1234 (15/12/2022 - 15/12/2022), 5N34 (16/02/2023 - 16/02/2023), 5N12 (16/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7191,9 +6264,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREA SIMOES RIVERO; LISAURA MARIA BELTRAME</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 04/10/2022), 3N1234 (18/10/2022 - 08/11/2022), 3N1234 (29/11/2022 - 06/12/2022), 3N1234 (20/12/2022 - 20/12/2022), 3N1234 (31/01/2023 - 07/02/2023), 3N34 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7214,9 +6284,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CAMILA CARACELLI SCHERMA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (24/11/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7237,9 +6304,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IONE INES PINSSON SLONGO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 17/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7260,9 +6324,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDUARDO VON DENTZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 25/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7283,9 +6344,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA MARIA BASEI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (02/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7306,9 +6364,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RIVAEL MATEUS FABRICIO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7329,9 +6384,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>KATIA APARECIDA SEGANFREDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (11/10/2022 - 11/10/2022), 3N1234 (22/11/2022 - 22/11/2022), 3N1234 (13/12/2022 - 13/12/2022), 3N1234 (14/02/2023 - 14/02/2023), 3N12 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7352,9 +6404,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IONE INES PINSSON SLONGO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1234 (19/09/2022 - 03/10/2022), 2N1234 (14/11/2022 - 28/11/2022), 2N1234 (13/02/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7375,9 +6424,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JANE TERESINHA DONINI RODRIGUES; SOLANGE MARIA ALVES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 06/10/2022), 5N1234 (20/10/2022 - 10/11/2022), 5N1234 (24/11/2022 - 08/12/2022), 5N1234 (22/12/2022 - 22/12/2022), 5N1234 (02/02/2023 - 09/02/2023), 5N34 (23/02/2023 - 02/03/2023), 5N12 (02/03/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7398,9 +6444,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BRUNO ANTONIO PICOLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 22/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7421,9 +6464,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PATRICIA GRAFF</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7444,9 +6484,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CARLOS ROBERTO FRANCA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3N1234 (29/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7467,9 +6504,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GERALDO CENI COELHO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (30/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7490,9 +6524,6 @@
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JANE TERESINHA DONINI RODRIGUES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (13/10/2022 - 13/10/2022), 5N1234 (17/11/2022 - 17/11/2022), 5N1234 (15/12/2022 - 15/12/2022), 5N34 (16/02/2023 - 16/02/2023), 5N12 (16/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7513,9 +6544,6 @@
             <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELA PEDERIVA PENSIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7536,9 +6564,6 @@
             <text:p>10</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA APARECIDA DOS SANTOS; LETICIA RIBEIRO LYRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7559,9 +6584,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGNES DE FATIMA PEREIRA CRUVINEL; JANE KELLY OLIVEIRA FRIESTINO; JOANNA D ARC LYRA BATISTA; MAIRA ROSSETTO; MARIA ENEIDA DE ALMEIDA; PAULO HENRIQUE DE ARAUJO GUERRA; PAULO ROBERTO BARBATO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T345 (20/09/2022 - 08/11/2022), 5T12345 (22/09/2022 - 22/12/2022), 3T345 (22/11/2022 - 20/12/2022), 3T345 (31/01/2023 - 14/02/2023), 5T12345 (02/02/2023 - 02/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7582,9 +6604,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREIA MACHADO CARDOSO; MARGARETE DULCE BAGATINI; MARINA PIZZI; SARAH FRANCO VIEIRA DE OLIVEIRA MACIEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 19/12/2022), 5M2345 (22/09/2022 - 22/12/2022), 2M2345 (30/01/2023 - 20/02/2023), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7605,9 +6624,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEBORA TAVARES DE RESENDE E SILVA; GABRIELA GONCALVES DE OLIVEIRA; MARINA PIZZI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4T12345 (21/09/2022 - 05/10/2022), 4T12345 (19/10/2022 - 26/10/2022), 4T12345 (09/11/2022 - 21/12/2022), 4T12345 (01/02/2023 - 01/03/2023), 4T6 (08/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7628,9 +6644,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOANNA D ARC LYRA BATISTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M12345 (21/09/2022 - 05/10/2022), 4M1 (19/10/2022 - 19/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7651,9 +6664,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA BEATRIZ SENGIK SAEZ; ARIELE DIDOMENICO; DANIELA ZANINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T12345 (19/09/2022 - 19/12/2022), 3T12 (20/09/2022 - 08/11/2022), 3M2345 (20/09/2022 - 08/11/2022), 3T12 (22/11/2022 - 20/12/2022), 3M2345 (22/11/2022 - 20/12/2022), 2T12345 (30/01/2023 - 27/02/2023), 3T12 (31/01/2023 - 14/02/2023), 3M2345 (31/01/2023 - 14/02/2023), 2T6 (20/02/2023 - 27/02/2023), 3T12 (28/02/2023 - 28/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7674,9 +6684,6 @@
             <text:p>3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA LUIZA BABO SEDLACEK CARVALHO; DEBORA TAVARES DE RESENDE E SILVA; PAULO ROBERTO BARBATO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N34 (22/09/2022 - 13/10/2022), 5N12 (22/09/2022 - 20/10/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7697,9 +6704,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGNES DE FATIMA PEREIRA CRUVINEL; GRACIELA SOARES FONSECA; JANE KELLY OLIVEIRA FRIESTINO; JOANNA D ARC LYRA BATISTA; MAIRA ROSSETTO; MARIA ENEIDA DE ALMEIDA; PAULO HENRIQUE DE ARAUJO GUERRA; PAULO ROBERTO BARBATO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T345 (19/09/2022 - 19/12/2022), 4T12345 (21/09/2022 - 05/10/2022), 4T12345 (19/10/2022 - 26/10/2022), 4T12345 (09/11/2022 - 21/12/2022), 2T345 (30/01/2023 - 27/02/2023), 4T12345 (01/02/2023 - 01/03/2023), 4T6 (22/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7720,9 +6724,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDERSON FUNAI; ANDRE MORENO; ARIELE DIDOMENICO; DIRCEU FELIPE VALENTINI JUNIOR; FELIPE JOSE NASCIMENTO BARRETO; GRASIELA MARCON; JOAO CARLOS MENTA FILHO; LUCAS SAVARIS LINHARES; SERGIO FRANCISCO SIEPKO JUNIOR; THAIS NASCIMENTO HELOU</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3T3456 (20/09/2022 - 08/11/2022), 5M12345 (22/09/2022 - 22/12/2022), 3T3456 (22/11/2022 - 20/12/2022), 3T3456 (31/01/2023 - 14/02/2023), 5M1 (02/02/2023 - 16/02/2023), 5M2345 (02/02/2023 - 02/03/2023), 3T3456 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7743,9 +6744,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARTHUR CESAR FARAH FERREIRA; DIRCEU FELIPE VALENTINI JUNIOR; MARCELO ZENI; MARCO ANTONIO SCIREA TESSEROLI; MARCOS GUILHERME TIBES PAULETTI; SERGIO FRANCISCO SIEPKO JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1 (20/09/2022 - 25/10/2022), 3T12 (20/09/2022 - 08/11/2022), 3M2345 (20/09/2022 - 08/11/2022), 3T12 (22/11/2022 - 20/12/2022), 3M2345 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 3M2345 (31/01/2023 - 14/02/2023), 3T12 (28/02/2023 - 28/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7766,9 +6764,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA WAGNER; LUIZ ALBERTO BARCELLOS MARINHO; WERNER ANDRE WEISSHEIMER</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T12 (22/09/2022 - 22/12/2022), 6M1 (23/09/2022 - 30/09/2022), 6M2345 (23/09/2022 - 21/10/2022), 6M2345 (04/11/2022 - 16/12/2022), 5T12 (02/02/2023 - 02/03/2023), 6M2345 (03/02/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7789,9 +6784,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA BEATRIZ SENGIK SAEZ; ANA LUCIA LAGO LOPES; CARLOS ALBERTO DO AMARAL MEDEIROS; MARILIAN BASTIANI BENETTI; RODRIGO AGUIAR DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2T1 (19/09/2022 - 12/12/2022), 2M12345 (19/09/2022 - 19/12/2022), 2M12345 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7812,9 +6804,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FELIPE JOSE NASCIMENTO BARRETO; GRASIELA MARCON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T345 (22/09/2022 - 22/12/2022), 5T345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7835,9 +6824,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGNES DE FATIMA PEREIRA CRUVINEL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4M12345 (21/09/2022 - 05/10/2022), 4M1 (19/10/2022 - 19/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7858,9 +6844,6 @@
             <text:p>5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCAS SAVARIS LINHARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T345 (23/09/2022 - 14/10/2022), 6T12 (23/09/2022 - 21/10/2022)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7881,9 +6864,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA BEATRIZ SENGIK SAEZ; ANA LUIZA BABO SEDLACEK CARVALHO; MARINA PIZZI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2M2345 (19/09/2022 - 19/12/2022), 3N12 (20/09/2022 - 08/11/2022), 3N12 (22/11/2022 - 20/12/2022), 2M2345 (30/01/2023 - 27/02/2023), 3N12 (31/01/2023 - 14/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7904,9 +6884,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRE MORENO; ARIELE DIDOMENICO; GABRIELA GONCALVES DE OLIVEIRA; JOAO CARLOS MENTA FILHO; LUCAS SAVARIS LINHARES; SERGIO FRANCISCO SIEPKO JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>4N12 (21/09/2022 - 05/10/2022), 4M12345 (21/09/2022 - 05/10/2022), 4T123456 (21/09/2022 - 05/10/2022), 4N12 (19/10/2022 - 26/10/2022), 4M12345 (19/10/2022 - 26/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 4M12345 (09/11/2022 - 21/12/2022), 4T123456 (09/11/2022 - 21/12/2022), 4M12345 (01/02/2023 - 01/03/2023), 4T123456 (01/02/2023 - 01/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7927,9 +6904,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARTHUR CESAR FARAH FERREIRA; DIRCEU FELIPE VALENTINI JUNIOR; MARCELO ZENI; MARCO ANTONIO SCIREA TESSEROLI; MARCOS GUILHERME TIBES PAULETTI; SERGIO FRANCISCO SIEPKO JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>3M1 (20/09/2022 - 25/10/2022), 3T12 (20/09/2022 - 08/11/2022), 3M2345 (20/09/2022 - 08/11/2022), 3T12 (22/11/2022 - 20/12/2022), 3M2345 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 3M2345 (31/01/2023 - 14/02/2023), 3T12 (28/02/2023 - 28/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7950,9 +6924,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JAIME DIAS RODRIGUES JUNIOR; LUIZ ALBERTO BARCELLOS MARINHO; PAULA GOULART MENNA BARRETO RODRIGUES; WERNER ANDRE WEISSHEIMER</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5T12345 (22/09/2022 - 22/12/2022), 6M23 (23/09/2022 - 21/10/2022), 6M23 (04/11/2022 - 16/12/2022), 5T12345 (02/02/2023 - 02/03/2023), 6M23 (03/02/2023 - 24/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7973,9 +6944,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANA BEATRIZ SENGIK SAEZ; MARILIAN BASTIANI BENETTI; RICARDO FARIAS; RODRIGO AGUIAR DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>2N1 (19/09/2022 - 12/12/2022), 2T123456 (19/09/2022 - 19/12/2022), 2T123456 (30/01/2023 - 27/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -7996,9 +6964,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ELIZIARIO NOE BOEIRA TOLEDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -8019,9 +6984,6 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GRASIELA MARCON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M45 (23/09/2022 - 21/10/2022), 6M45 (04/11/2022 - 16/12/2022), 6M45 (03/02/2023 - 03/03/2023), 6M23 (03/03/2023 - 03/03/2023)</text:p>
           </table:table-cell>
         </table:table-row>
@@ -8042,76 +7004,1024 @@
             <text:p>7</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGNES DE FATIMA PEREIRA CRUVINEL; GRASIELA MARCON</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T12 (23/09/2022 - 21/10/2022), 6T12 (04/11/2022 - 25/11/2022)</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GSA296</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR OBRIGATÓRIO I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="885" calcext:value-type="float">
-            <text:p>885</text:p>
+            <text:p>GLA192</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LÍNGUA BRASILEIRA DE SINAIS (LIBRAS)</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>MEDICINA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GSA179</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TEMAS EMERGENTES NA FORMAÇÃO MÉDICA VIII</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MEDICINA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (25/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA004</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LEITURA E PRODUÇÃO TEXTUAL II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH011</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>INTRODUÇÃO AO PENSAMENTO SOCIAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4T12345 (21/09/2022 - 05/10/2022), 4T12345 (19/10/2022 - 26/10/2022), 4T12345 (09/11/2022 - 21/12/2022), 4T12345 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX190</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FÍSICA GERAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3M2345 (20/09/2022 - 04/10/2022), 3M2345 (18/10/2022 - 08/11/2022), 3M2345 (22/11/2022 - 20/12/2022), 3M2345 (31/01/2023 - 14/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH002</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>HISTÓRIA DA AGRICULTURA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5M45 (22/09/2022 - 22/12/2022), 5M45 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB124</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>INTRODUÇÃO À ECOLOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2M234 (19/09/2022 - 19/12/2022), 2M234 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB124</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>INTRODUÇÃO À ECOLOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2M235 (19/09/2022 - 19/12/2022), 2M235 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX179</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CÁLCULO I</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB056</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ORGANOGRAFIA E SISTEMÁTICA DE ESPERMATÓFITOS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T12 (20/09/2022 - 08/11/2022), 5M23 (22/09/2022 - 22/12/2022), 3T12 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 5M23 (02/02/2023 - 02/03/2023), 3T12 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB056</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ORGANOGRAFIA E SISTEMÁTICA DE ESPERMATÓFITOS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T345 (20/09/2022 - 08/11/2022), 5M23 (22/09/2022 - 22/12/2022), 3T345 (22/11/2022 - 20/12/2022), 3T345 (31/01/2023 - 14/02/2023), 5M23 (02/02/2023 - 02/03/2023), 3T345 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB107</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BIOQUÍMICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4M1234 (21/09/2022 - 05/10/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 21/12/2022), 4M1234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA218</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FUNDAMENTOS DE ZOOTECNIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2M45 (19/09/2022 - 19/12/2022), 2M45 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH012</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FUNDAMENTOS DA CRÍTICA SOCIAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T12345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH008</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>INICIAÇÃO À PRÁTICA CIENTÍFICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB130</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>NUTRIÇÃO VEGETAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3M23 (20/09/2022 - 08/11/2022), 3M23 (22/11/2022 - 20/12/2022), 3M23 (31/01/2023 - 14/02/2023), 3M23 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA034</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>EXPERIMENTAÇÃO AGRÍCOLA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2T123 (19/09/2022 - 19/12/2022), 2T123 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA210</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BROMATOLOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA045</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PROPAGAÇÃO DE PLANTAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3M45 (20/09/2022 - 08/11/2022), 3M45 (22/11/2022 - 20/12/2022), 3M45 (31/01/2023 - 14/02/2023), 3M45 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX116</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEOMORFOLOGIA E PEDOLOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4M234 (21/09/2022 - 05/10/2022), 4M234 (19/10/2022 - 26/10/2022), 4M234 (09/11/2022 - 21/12/2022), 4M234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA037</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>QUÍMICA E FERTILIDADE DO SOLO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5M234 (22/09/2022 - 22/12/2022), 5M234 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA037</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>QUÍMICA E FERTILIDADE DO SOLO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5M235 (22/09/2022 - 22/12/2022), 5M235 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB140</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FISIOLOGIA E NUTRIÇÃO ANIMAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
+            <text:p>5</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022), 4T123 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCS243</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ECONOMIA RURAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2M345 (19/09/2022 - 19/12/2022), 2M345 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX080</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEODÉSIA E SENSORIAMENTO REMOTO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA025</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGROECOLOGIA I</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T12345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA050</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>SUINOCULTURA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5M345 (22/09/2022 - 22/12/2022), 5M345 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA250</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MANEJO DE PLANTAS ESPONTÂNEAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2T123 (19/09/2022 - 19/12/2022), 2T123 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA286</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CLASSIFICAÇÃO DE SOLOS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3M234 (20/09/2022 - 08/11/2022), 3M234 (22/11/2022 - 20/12/2022), 3M234 (31/01/2023 - 14/02/2023), 3M234 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCB054</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BIOTECNOLOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4M45 (21/09/2022 - 05/10/2022), 4M45 (19/10/2022 - 26/10/2022), 4M45 (09/11/2022 - 21/12/2022), 4M45 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA239</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>EXTENSÃO RURAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4M123 (21/09/2022 - 05/10/2022), 4M123 (19/10/2022 - 26/10/2022), 4M123 (09/11/2022 - 21/12/2022), 4M123 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA225</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BOVINOCULTURA DE LEITE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA287</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PLANEJAMENTO DE TCC E ESTÁGIO CURRICULAR SUPERVISIONADO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4T56 (21/09/2022 - 05/10/2022), 4T56 (19/10/2022 - 26/10/2022), 4T56 (09/11/2022 - 21/12/2022), 4T56 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA224</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AVICULTURA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5T123 (22/09/2022 - 22/12/2022), 5T123 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA269</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>SOBERANIA E SEGURANÇA ALIMENTAR E NUTRICIONAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3M45 (20/09/2022 - 08/11/2022), 3M45 (22/11/2022 - 20/12/2022), 3M45 (31/01/2023 - 14/02/2023), 3M45 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA245</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>IRRIGAÇÃO E DRENAGEM</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2M2345 (19/09/2022 - 19/12/2022), 2M2345 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCS056</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ADMINISTRAÇÃO E ANÁLISE DE PROJETOS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T12345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA221</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGROECOLOGIA II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4T12345 (21/09/2022 - 05/10/2022), 4T12345 (19/10/2022 - 26/10/2022), 4T12345 (09/11/2022 - 21/12/2022), 4T12345 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA257</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>OLERICULTURA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCS073</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TEORIA COOPERATIVISTA I</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA268</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>SISTEMAS AGROFLORESTAIS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
             <text:p>9</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA WAGNER; ANA BEATRIZ SENGIK SAEZ; ANA LUIZA BABO SEDLACEK CARVALHO; ARTHUR CESAR FARAH FERREIRA; DANIELA ZANINI; FELIPE JOSE NASCIMENTO BARRETO; JAIME DIAS RODRIGUES JUNIOR; JOAO CARLOS MENTA FILHO; LUCAS SAVARIS LINHARES; PAULA GOULART MENNA BARRETO RODRIGUES; RICARDO FARIAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M12345 (19/09/2022 - 19/12/2022), 2T123456 (19/09/2022 - 19/12/2022), 3M12345 (20/09/2022 - 08/11/2022), 3T123456 (20/09/2022 - 08/11/2022), 4M12345 (21/09/2022 - 05/10/2022), 4T123456 (21/09/2022 - 05/10/2022), 5M12345 (22/09/2022 - 22/12/2022), 5T123456 (22/09/2022 - 22/12/2022), 6M12345 (23/09/2022 - 21/10/2022), 6T123456 (23/09/2022 - 21/10/2022), 4M12345 (19/10/2022 - 26/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6M12345 (04/11/2022 - 16/12/2022), 6T123456 (04/11/2022 - 16/12/2022), 4M12345 (09/11/2022 - 21/12/2022), 4T123456 (09/11/2022 - 21/12/2022), 3M12345 (22/11/2022 - 20/12/2022), 3T123456 (22/11/2022 - 20/12/2022), 2M12345 (30/01/2023 - 27/02/2023), 2T123456 (30/01/2023 - 27/02/2023), 3M12345 (31/01/2023 - 14/02/2023), 3T123456 (31/01/2023 - 14/02/2023), 4M12345 (01/02/2023 - 01/03/2023), 4T123456 (01/02/2023 - 01/03/2023), 5M12345 (02/02/2023 - 02/03/2023), 5T123456 (02/02/2023 - 02/03/2023), 6M12345 (03/02/2023 - 03/03/2023), 6T123456 (03/02/2023 - 03/03/2023), 3M12345 (28/02/2023 - 28/02/2023), 3T123456 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GSA299</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR OBRIGATÓRIO III</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="900" calcext:value-type="float">
-            <text:p>900</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MEDICINA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="11" calcext:value-type="float">
-            <text:p>11</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADRIANA WAGNER; ANA BEATRIZ SENGIK SAEZ; ANA LUCIA LAGO LOPES; ANA LUIZA BABO SEDLACEK CARVALHO; ARTHUR CESAR FARAH FERREIRA; CARLOS ALBERTO DO AMARAL MEDEIROS; DANIELA ZANINI; FELIPE JOSE NASCIMENTO BARRETO; GRASIELA MARCON; JAIME DIAS RODRIGUES JUNIOR; JOAO CARLOS MENTA FILHO; LUCAS SAVARIS LINHARES; PAULA GOULART MENNA BARRETO RODRIGUES; RICARDO FARIAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M12345 (19/09/2022 - 19/12/2022), 2T123456 (19/09/2022 - 19/12/2022), 3M12345 (20/09/2022 - 08/11/2022), 3T123456 (20/09/2022 - 08/11/2022), 4M12345 (21/09/2022 - 05/10/2022), 4T123456 (21/09/2022 - 05/10/2022), 5M12345 (22/09/2022 - 22/12/2022), 5T123456 (22/09/2022 - 22/12/2022), 6M12345 (23/09/2022 - 21/10/2022), 6T123456 (23/09/2022 - 21/10/2022), 4M12345 (19/10/2022 - 26/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6M12345 (04/11/2022 - 16/12/2022), 6T123456 (04/11/2022 - 16/12/2022), 4M12345 (09/11/2022 - 21/12/2022), 4T123456 (09/11/2022 - 21/12/2022), 3M12345 (22/11/2022 - 20/12/2022), 3T123456 (22/11/2022 - 20/12/2022), 2M12345 (30/01/2023 - 27/02/2023), 2T123456 (30/01/2023 - 27/02/2023), 3M12345 (31/01/2023 - 14/02/2023), 3T123456 (31/01/2023 - 14/02/2023), 4M12345 (01/02/2023 - 01/03/2023), 4T123456 (01/02/2023 - 01/03/2023), 5M12345 (02/02/2023 - 02/03/2023), 5T123456 (02/02/2023 - 02/03/2023), 6M12345 (03/02/2023 - 03/03/2023), 6T123456 (03/02/2023 - 03/03/2023), 3M12345 (28/02/2023 - 28/02/2023), 3T123456 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA192</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LÍNGUA BRASILEIRA DE SINAIS (LIBRAS)</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MEDICINA</text:p>
+            <text:p>6T12345 (23/09/2022 - 21/10/2022), 6T12345 (04/11/2022 - 16/12/2022), 6T12345 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA646</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ADVERSIDADES CLIMÁTICAS E DESENVOLVIMENTO VEGETAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RIVAEL MATEUS FABRICIO</text:p>
+            <text:p>6T123 (23/09/2022 - 21/10/2022), 6T123 (04/11/2022 - 16/12/2022), 6T123 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA653</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CULTURAS ESPECIAIS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA315</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FLORICULTURA E PAISAGISMO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX431</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>QUÍMICA ANALÍTICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA054</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA V</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="105" calcext:value-type="float">
+            <text:p>105</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5T23456 (22/09/2022 - 22/12/2022), 5T23456 (02/02/2023 - 02/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA054</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA V</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="105" calcext:value-type="float">
+            <text:p>105</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA039</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS AVANÇADOS EM LÍNGUA ESPANHOLA I: PRÁTICA DE TEXTOS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (14/10/2022 - 21/10/2022), 6N1234 (04/11/2022 - 18/11/2022), 6N1234 (09/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA025</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LITERATURA BRASILEIRA II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (05/10/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 16/11/2022), 2N1234 (12/12/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA023</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS DA LÍNGUA PORTUGUESA V: DIVERSIDADE LINGUÍSTICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2N1234 (19/09/2022 - 05/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA036</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS DA SIGNIFICAÇÃO II: ENUNCIAÇÃO E DISCURSO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
@@ -8119,148 +8029,850 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GSA179</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TEMAS EMERGENTES NA FORMAÇÃO MÉDICA VIII</text:p>
+            <text:p>GLA057</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA III</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
             <text:p>30</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MEDICINA</text:p>
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (21/09/2022 - 28/09/2022), 4N1234 (07/12/2022 - 21/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA052</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA III</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (23/09/2022 - 07/10/2022), 6N1234 (25/11/2022 - 02/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA060</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TRABALHO DE CONCLUSÃO DE CURSO I</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (20/09/2022 - 27/09/2022), 3N1234 (14/02/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA046</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>SEMINÁRIO TEMÁTICO I</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="15" calcext:value-type="float">
+            <text:p>15</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (13/12/2022 - 20/12/2022), 3N1234 (31/01/2023 - 07/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA061</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TRABALHO DE CONCLUSÃO DE CURSO II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
+            <text:p>9</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T12345 (20/09/2022 - 11/10/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA041</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS AVANÇADOS EM LÍNGUA ESPANHOLA III: PRÁTICA ORAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA043</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LITERATURAS CATARINENSE, PARANAENSE E SUL-RIOGRANDENSE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (05/10/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 30/11/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA059</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA V</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="105" calcext:value-type="float">
+            <text:p>105</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA155</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>HISTÓRIA DO PORTUGUÊS BRASILEIRO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
             <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CARLOS ROBERTO FRANCA; ZULEIDE MARIA IGNACIO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (25/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA004</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEITURA E PRODUÇÃO TEXTUAL II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
+            <text:p>3N1234 (04/10/2022 - 08/11/2022), 3N1234 (22/11/2022 - 06/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA084</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LITERATURA UNIVERSAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (09/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA360</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS DA LÍNGUA ESPANHOLA II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARY NEIVA SURDI DA LUZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH011</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INTRODUÇÃO AO PENSAMENTO SOCIAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
+            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 11/11/2022), 2N1234 (21/11/2022 - 19/12/2022), 6N1234 (03/02/2023 - 17/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH290</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>INICIAÇÃO À PRÁTICA CIENTÍFICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEONARDO RAFAEL SANTOS LEITAO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4T12345 (21/09/2022 - 05/10/2022), 4T12345 (19/10/2022 - 26/10/2022), 4T12345 (09/11/2022 - 21/12/2022), 4T12345 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX190</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FÍSICA GERAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
+            <text:p>2N1234 (19/09/2022 - 14/11/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA358</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LINGUÍSTICA TEXTUAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DANIELLE NICOLODELLI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M2345 (20/09/2022 - 04/10/2022), 3M2345 (18/10/2022 - 08/11/2022), 3M2345 (22/11/2022 - 20/12/2022), 3M2345 (31/01/2023 - 14/02/2023), 3M2345 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH002</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>HISTÓRIA DA AGRICULTURA</text:p>
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 16/11/2022), 6N1234 (18/11/2022 - 16/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCS238</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MEIO AMBIENTE, ECONOMIA E SOCIEDADE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA359</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TEORIA E CRÍTICA LITERÁRIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (23/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023), 6N1234 (24/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA366</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS DA LÍNGUA PORTUGUESA II: MORFOLOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 06/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA368</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FONÉTICA E FONOLOGIA DA LÍNGUA ESPANHOLA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (27/10/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA365</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>FUNDAMENTOS TEÓRICO-METODOLÓGICOS DO ENSINO DE LÍNGUA PORTUGUESA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2N1234 (26/09/2022 - 05/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA367</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LITERATURA ESPANHOLA II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 20/10/2022), 6N1234 (09/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA364</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LITERATURA PARA CRIANÇAS E JOVENS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 02/12/2022), 2N1234 (12/12/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA373</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA I - ENSINO FUNDAMENTAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="90" calcext:value-type="float">
+            <text:p>90</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 09/11/2022), 4N1234 (21/12/2022 - 21/12/2022), 2N1234 (27/02/2023 - 27/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA376</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTUDOS DA LÍNGUA PORTUGUESA IV: SINTAXE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA374</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LINGUÍSTICA APLICADA AO ENSINO DE LÍNGUA PORTUGUESA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 06/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA375</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LINGUÍSTICA APLICADA AO ENSINO E APRENDIZAGEM DA LÍNGUA ESPANHOLA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (16/11/2022 - 14/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA377</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LITERATURA HISPANO-AMERICANA II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (01/12/2022 - 22/12/2022), 3N1234 (13/12/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 5N1234 (02/02/2023 - 02/03/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA378</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PRÁTICA DE TEXTOS EM LÍNGUA ESPANHOLA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 24/11/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX001</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MATEMÁTICA INSTRUMENTAL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCS010</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DIREITOS E CIDADANIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA004</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LEITURA E PRODUÇÃO TEXTUAL II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA; LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2; 2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCS011</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MEIO AMBIENTE, ECONOMIA E SOCIEDADE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX006</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ESTATÍSTICA BÁSICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
+            <text:p>3</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX112</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>SEGURANÇA E AUDITORIA DE SISTEMAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX638</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TÓPICOS ESPECIAIS EM COMPUTAÇÃO XVI</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX642</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TÓPICOS ESPECIAIS EM COMPUTAÇÃO XX</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH1324</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DOCÊNCIA COM BEBÊS: DIMENSÕES TEÓRICO-PRÁTICAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PEDAGOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>6M1234 (23/09/2022 - 21/10/2022), 6M1234 (04/11/2022 - 16/12/2022), 6M1234 (03/02/2023 - 03/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH1294</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>JOGOS POPULARES DA CULTURA BRASILEIRA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
             <text:p>30</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
+            <text:p>PEDAGOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 23/11/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH500</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TÓPICOS ESPECIAIS DE SOCIOLOGIA VI</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIAS SOCIAIS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX213</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MATEMÁTICA C</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIA DA COMPUTAÇÃO; ENGENHARIA AMBIENTAL E SANITÁRIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1; 1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA004</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LEITURA E PRODUÇÃO TEXTUAL II</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRE LUIZ RADUNZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5M45 (22/09/2022 - 22/12/2022), 5M45 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB124</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INTRODUÇÃO À ECOLOGIA</text:p>
+            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1 (09/11/2022 - 07/12/2022), 4N234 (09/11/2022 - 21/12/2022), 4N234 (01/02/2023 - 01/03/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA042</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PSICOLINGUÍSTICA: PROCESSOS DE LEITURA E ESCRITA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>4T123456 (21/09/2022 - 05/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6T123456 (04/11/2022 - 11/11/2022), 4T123456 (09/11/2022 - 21/12/2022), 6T123456 (09/12/2022 - 09/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GLA009</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>INTRODUÇÃO AOS ESTUDOS LINGUÍSTICOS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
             <text:p>45</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GERALDO CENI COELHO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M234 (19/09/2022 - 19/12/2022), 2M234 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB124</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INTRODUÇÃO À ECOLOGIA</text:p>
+            <text:p>LETRAS</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3T123456 (27/09/2022 - 01/11/2022), 6T123456 (30/09/2022 - 21/10/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCH166</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>TRABALHO DE CONCLUSÃO DE CURSO I</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PEDAGOGIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
+            <text:p>9</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>7M1234 (01/10/2022 - 17/12/2022), 7M1234 (04/02/2023 - 11/02/2023)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA057</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PÓS-COLHEITA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
             <text:p>45</text:p>
@@ -8268,2012 +8880,28 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AGRONOMIA</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GERALDO CENI COELHO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M235 (19/09/2022 - 19/12/2022), 2M235 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX179</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CÁLCULO I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDSON RIBEIRO DOS SANTOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB056</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ORGANOGRAFIA E SISTEMÁTICA DE ESPERMATÓFITOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROSIANE BERENICE NICOLOSO DENARDIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T12 (20/09/2022 - 08/11/2022), 5M23 (22/09/2022 - 22/12/2022), 3T12 (22/11/2022 - 20/12/2022), 3T12 (31/01/2023 - 14/02/2023), 5M23 (02/02/2023 - 02/03/2023), 3T12 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB056</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ORGANOGRAFIA E SISTEMÁTICA DE ESPERMATÓFITOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROSIANE BERENICE NICOLOSO DENARDIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T345 (20/09/2022 - 08/11/2022), 5M23 (22/09/2022 - 22/12/2022), 3T345 (22/11/2022 - 20/12/2022), 3T345 (31/01/2023 - 14/02/2023), 5M23 (02/02/2023 - 02/03/2023), 3T345 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB107</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BIOQUÍMICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SAMUEL MARIANO GISLON DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4M1234 (21/09/2022 - 05/10/2022), 4M1234 (19/10/2022 - 26/10/2022), 4M1234 (09/11/2022 - 21/12/2022), 4M1234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA218</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FUNDAMENTOS DE ZOOTECNIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EVELINE CATERINE SANDRI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M45 (19/09/2022 - 19/12/2022), 2M45 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH012</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FUNDAMENTOS DA CRÍTICA SOCIAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANA VANUZA GOBI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T12345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH008</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INICIAÇÃO À PRÁTICA CIENTÍFICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRE LUIZ RADUNZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB130</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>NUTRIÇÃO VEGETAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JORGE LUIS MATTIAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M23 (20/09/2022 - 08/11/2022), 3M23 (22/11/2022 - 20/12/2022), 3M23 (31/01/2023 - 14/02/2023), 3M23 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA034</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EXPERIMENTAÇÃO AGRÍCOLA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCO AURELIO TRAMONTIN DA SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2T123 (19/09/2022 - 19/12/2022), 2T123 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA210</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BROMATOLOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ROSIANE BERENICE NICOLOSO DENARDIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA045</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PROPAGAÇÃO DE PLANTAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VANESSA NEUMANN SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M45 (20/09/2022 - 08/11/2022), 3M45 (22/11/2022 - 20/12/2022), 3M45 (31/01/2023 - 14/02/2023), 3M45 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX116</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEOMORFOLOGIA E PEDOLOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO ALFREDO BRAIDA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4M234 (21/09/2022 - 05/10/2022), 4M234 (19/10/2022 - 26/10/2022), 4M234 (09/11/2022 - 21/12/2022), 4M234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA037</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>QUÍMICA E FERTILIDADE DO SOLO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JORGE LUIS MATTIAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5M234 (22/09/2022 - 22/12/2022), 5M234 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA037</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>QUÍMICA E FERTILIDADE DO SOLO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JORGE LUIS MATTIAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5M235 (22/09/2022 - 22/12/2022), 5M235 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB140</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FISIOLOGIA E NUTRIÇÃO ANIMAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
-            <text:p>5</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EVELINE CATERINE SANDRI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4T123 (21/09/2022 - 05/10/2022), 4T123 (19/10/2022 - 26/10/2022), 4T123 (09/11/2022 - 21/12/2022), 4T123 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCS243</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ECONOMIA RURAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO GUILHERME DAL BELO LEITE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M345 (19/09/2022 - 19/12/2022), 2M345 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX080</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEODÉSIA E SENSORIAMENTO REMOTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DEISE REGINA LAZZAROTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5T12345 (22/09/2022 - 22/12/2022), 5T12345 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA025</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGROECOLOGIA I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INES CLAUDETE BURG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T12345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA050</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SUINOCULTURA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
+          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
+            <text:p>9</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2N12 (03/10/2022 - 07/11/2022), 3N123 (04/10/2022 - 08/11/2022), 2N12 (21/11/2022 - 05/12/2022), 3N123 (22/11/2022 - 06/12/2022)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GCA252</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MANEJO E CONSERVAÇÃO DE SOLO E DA ÁGUA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AGRONOMIA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EVELINE CATERINE SANDRI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5M345 (22/09/2022 - 22/12/2022), 5M345 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA250</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MANEJO DE PLANTAS ESPONTÂNEAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SIUMAR PEDRO TIRONI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2T123 (19/09/2022 - 19/12/2022), 2T123 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA286</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLASSIFICAÇÃO DE SOLOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO ALFREDO BRAIDA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M234 (20/09/2022 - 08/11/2022), 3M234 (22/11/2022 - 20/12/2022), 3M234 (31/01/2023 - 14/02/2023), 3M234 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCB054</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BIOTECNOLOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SERGIO LUIZ ALVES JUNIOR</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4M45 (21/09/2022 - 05/10/2022), 4M45 (19/10/2022 - 26/10/2022), 4M45 (09/11/2022 - 21/12/2022), 4M45 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA239</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EXTENSÃO RURAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INES CLAUDETE BURG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4M123 (21/09/2022 - 05/10/2022), 4M123 (19/10/2022 - 26/10/2022), 4M123 (09/11/2022 - 21/12/2022), 4M123 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA225</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BOVINOCULTURA DE LEITE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EVELINE CATERINE SANDRI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA287</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PLANEJAMENTO DE TCC E ESTÁGIO CURRICULAR SUPERVISIONADO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO ALFREDO BRAIDA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4T56 (21/09/2022 - 05/10/2022), 4T56 (19/10/2022 - 26/10/2022), 4T56 (09/11/2022 - 21/12/2022), 4T56 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA224</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AVICULTURA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EVELINE CATERINE SANDRI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5T123 (22/09/2022 - 22/12/2022), 5T123 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA269</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SOBERANIA E SEGURANÇA ALIMENTAR E NUTRICIONAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO GUILHERME DAL BELO LEITE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M45 (20/09/2022 - 08/11/2022), 3M45 (22/11/2022 - 20/12/2022), 3M45 (31/01/2023 - 14/02/2023), 3M45 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA245</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>IRRIGAÇÃO E DRENAGEM</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JAMES LUIZ BERTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2M2345 (19/09/2022 - 19/12/2022), 2M2345 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCS056</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADMINISTRAÇÃO E ANÁLISE DE PROJETOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRE LUIZ RADUNZ; MARCOS ROBERTO DOS REIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T12345 (20/09/2022 - 08/11/2022), 3T12345 (22/11/2022 - 20/12/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA221</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGROECOLOGIA II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INES CLAUDETE BURG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4T12345 (21/09/2022 - 05/10/2022), 4T12345 (19/10/2022 - 26/10/2022), 4T12345 (09/11/2022 - 21/12/2022), 4T12345 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA257</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>OLERICULTURA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VANESSA NEUMANN SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5M2345 (22/09/2022 - 22/12/2022), 5M2345 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCS073</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TEORIA COOPERATIVISTA I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO GUILHERME DAL BELO LEITE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4M2345 (21/09/2022 - 05/10/2022), 4M2345 (19/10/2022 - 26/10/2022), 4M2345 (09/11/2022 - 21/12/2022), 4M2345 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA268</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SISTEMAS AGROFLORESTAIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
-            <text:p>9</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GERALDO CENI COELHO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6T12345 (23/09/2022 - 21/10/2022), 6T12345 (04/11/2022 - 16/12/2022), 6T12345 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA646</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ADVERSIDADES CLIMÁTICAS E DESENVOLVIMENTO VEGETAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDRE LUIZ RADUNZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6T123 (23/09/2022 - 21/10/2022), 6T123 (04/11/2022 - 16/12/2022), 6T123 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA653</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CULTURAS ESPECIAIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SIUMAR PEDRO TIRONI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA315</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FLORICULTURA E PAISAGISMO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VANESSA NEUMANN SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX431</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>QUÍMICA ANALÍTICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARLINDO CRISTIANO FELIPPE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6M345 (23/09/2022 - 21/10/2022), 6M345 (04/11/2022 - 16/12/2022), 6M345 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA054</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA V</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="105" calcext:value-type="float">
-            <text:p>105</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELA LUZIA GARAY FLAIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5T23456 (22/09/2022 - 22/12/2022), 5T23456 (02/02/2023 - 02/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA054</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA V</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="105" calcext:value-type="float">
-            <text:p>105</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELA LUZIA GARAY FLAIN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA039</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS AVANÇADOS EM LÍNGUA ESPANHOLA I: PRÁTICA DE TEXTOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA JOSE LAINO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (14/10/2022 - 21/10/2022), 6N1234 (04/11/2022 - 18/11/2022), 6N1234 (09/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA025</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LITERATURA BRASILEIRA II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VALDIR PRIGOL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (05/10/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 16/11/2022), 2N1234 (12/12/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA023</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS DA LÍNGUA PORTUGUESA V: DIVERSIDADE LINGUÍSTICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCELO JACO KRUG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N1234 (19/09/2022 - 05/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA036</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS DA SIGNIFICAÇÃO II: ENUNCIAÇÃO E DISCURSO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELA DERLISE STUBE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA057</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA III</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANO MELO DE PAULA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 28/09/2022), 4N1234 (07/12/2022 - 21/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA052</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA III</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELA LUZIA GARAY FLAIN; SANTO GABRIEL VACCARO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (23/09/2022 - 07/10/2022), 6N1234 (25/11/2022 - 02/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA060</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TRABALHO DE CONCLUSÃO DE CURSO I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MORGANA FABIOLA CAMBRUSSI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (20/09/2022 - 27/09/2022), 3N1234 (14/02/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA046</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SEMINÁRIO TEMÁTICO I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="15" calcext:value-type="float">
-            <text:p>15</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA JOSE LAINO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (13/12/2022 - 20/12/2022), 3N1234 (31/01/2023 - 07/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA061</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TRABALHO DE CONCLUSÃO DE CURSO II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
-            <text:p>9</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MORGANA FABIOLA CAMBRUSSI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T12345 (20/09/2022 - 11/10/2022), 3T12345 (31/01/2023 - 14/02/2023), 3T12345 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA041</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS AVANÇADOS EM LÍNGUA ESPANHOLA III: PRÁTICA ORAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEJANDRA MARIA ROJAS COVALSKI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA043</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LITERATURAS CATARINENSE, PARANAENSE E SUL-RIOGRANDENSE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANO MELO DE PAULA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (05/10/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 30/11/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA059</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA V</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="105" calcext:value-type="float">
-            <text:p>105</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
-            <text:p>10</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DULCE DO CARMO FRANCESCHINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA155</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>HISTÓRIA DO PORTUGUÊS BRASILEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE PEIXOTO GRAVINA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (04/10/2022 - 08/11/2022), 3N1234 (22/11/2022 - 06/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA084</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LITERATURA UNIVERSAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANO MELO DE PAULA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (09/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA360</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS DA LÍNGUA ESPANHOLA II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SOLANGE LABBONIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 11/11/2022), 2N1234 (21/11/2022 - 19/12/2022), 6N1234 (03/02/2023 - 17/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH290</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INICIAÇÃO À PRÁTICA CIENTÍFICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANI CARLA MARCHESAN</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N1234 (19/09/2022 - 14/11/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA358</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LINGUÍSTICA TEXTUAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE CASSOL DAGA CAVALHEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 16/11/2022), 6N1234 (18/11/2022 - 16/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCS238</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MEIO AMBIENTE, ECONOMIA E SOCIEDADE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDUARDO VON DENTZ</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA359</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TEORIA E CRÍTICA LITERÁRIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>VALDIR PRIGOL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (23/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023), 6N1234 (24/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA366</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS DA LÍNGUA PORTUGUESA II: MORFOLOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARCELO JACO KRUG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 06/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA368</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FONÉTICA E FONOLOGIA DA LÍNGUA ESPANHOLA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MARIA JOSE LAINO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (27/10/2022 - 22/12/2022), 5N1234 (02/02/2023 - 02/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA365</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FUNDAMENTOS TEÓRICO-METODOLÓGICOS DO ENSINO DE LÍNGUA PORTUGUESA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANGELA DERLISE STUBE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N1234 (26/09/2022 - 05/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA367</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LITERATURA ESPANHOLA II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SANTO GABRIEL VACCARO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 20/10/2022), 6N1234 (09/12/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA364</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LITERATURA PARA CRIANÇAS E JOVENS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LUCIANO MELO DE PAULA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 02/12/2022), 2N1234 (12/12/2022 - 19/12/2022), 2N1234 (30/01/2023 - 27/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA373</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA I - ENSINO FUNDAMENTAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="90" calcext:value-type="float">
-            <text:p>90</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MORGANA FABIOLA CAMBRUSSI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 09/11/2022), 4N1234 (21/12/2022 - 21/12/2022), 2N1234 (27/02/2023 - 27/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA376</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTUDOS DA LÍNGUA PORTUGUESA IV: SINTAXE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE PEIXOTO GRAVINA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA374</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LINGUÍSTICA APLICADA AO ENSINO DE LÍNGUA PORTUGUESA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALINE CASSOL DAGA CAVALHEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 06/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA375</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LINGUÍSTICA APLICADA AO ENSINO E APRENDIZAGEM DA LÍNGUA ESPANHOLA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEJANDRA MARIA ROJAS COVALSKI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (16/11/2022 - 14/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA377</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LITERATURA HISPANO-AMERICANA II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SANTO GABRIEL VACCARO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (01/12/2022 - 22/12/2022), 3N1234 (13/12/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 5N1234 (02/02/2023 - 02/03/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA378</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PRÁTICA DE TEXTOS EM LÍNGUA ESPANHOLA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEJANDRA MARIA ROJAS COVALSKI; MARIA JOSE LAINO; SOLANGE LABBONIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 24/11/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX001</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MATEMÁTICA INSTRUMENTAL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANTONIO MARCOS CORREA NERI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N1234 (19/09/2022 - 19/12/2022), 2N1234 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCS010</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DIREITOS E CIDADANIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDETE GOMES SOARES</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA004</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEITURA E PRODUÇÃO TEXTUAL II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA; LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2; 2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DULCE DO CARMO FRANCESCHINI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCS011</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MEIO AMBIENTE, ECONOMIA E SOCIEDADE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INES CLAUDETE BURG</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2T12345 (19/09/2022 - 19/12/2022), 2T12345 (30/01/2023 - 20/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX006</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTATÍSTICA BÁSICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
-            <text:p>3</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RICARDO MONTEIRO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX112</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SEGURANÇA E AUDITORIA DE SISTEMAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FELIPE GRANDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX638</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TÓPICOS ESPECIAIS EM COMPUTAÇÃO XVI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SAMUEL DA SILVA FEITOSA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>5N1234 (22/09/2022 - 22/12/2022), 5N1234 (02/02/2023 - 23/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX642</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TÓPICOS ESPECIAIS EM COMPUTAÇÃO XX</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>RAQUEL APARECIDA PEGORARO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (23/09/2022 - 21/10/2022), 6N1234 (04/11/2022 - 16/12/2022), 6N1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH1324</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>DOCÊNCIA COM BEBÊS: DIMENSÕES TEÓRICO-PRÁTICAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PEDAGOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ANDREA SIMOES RIVERO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6M1234 (23/09/2022 - 21/10/2022), 6M1234 (04/11/2022 - 16/12/2022), 6M1234 (03/02/2023 - 03/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH1294</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOGOS POPULARES DA CULTURA BRASILEIRA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PEDAGOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ALEXANDRE PAULO LORO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 23/11/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH500</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TÓPICOS ESPECIAIS DE SOCIOLOGIA VI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CIÊNCIAS SOCIAIS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>FABIO CARMINATI</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1234 (09/11/2022 - 21/12/2022), 4N1234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX213</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MATEMÁTICA C</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CIÊNCIA DA COMPUTAÇÃO; ENGENHARIA AMBIENTAL E SANITÁRIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>1; 1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>EDERSON STAUDT</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (20/09/2022 - 08/11/2022), 3N1234 (22/11/2022 - 20/12/2022), 3N1234 (31/01/2023 - 14/02/2023), 3N1234 (28/02/2023 - 28/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA004</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LEITURA E PRODUÇÃO TEXTUAL II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA ANDREA ROST SNICHELOTTO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (21/09/2022 - 05/10/2022), 4N1234 (19/10/2022 - 26/10/2022), 4N1 (09/11/2022 - 07/12/2022), 4N234 (09/11/2022 - 21/12/2022), 4N234 (01/02/2023 - 01/03/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA042</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PSICOLINGUÍSTICA: PROCESSOS DE LEITURA E ESCRITA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CLAUDIA FINGER KRATOCHVIL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4T123456 (21/09/2022 - 05/10/2022), 4T123456 (19/10/2022 - 26/10/2022), 6T123456 (04/11/2022 - 11/11/2022), 4T123456 (09/11/2022 - 21/12/2022), 6T123456 (09/12/2022 - 09/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA009</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INTRODUÇÃO AOS ESTUDOS LINGUÍSTICOS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>CRISTIANE HORST</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3T123456 (27/09/2022 - 01/11/2022), 6T123456 (30/09/2022 - 21/10/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH166</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TRABALHO DE CONCLUSÃO DE CURSO I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PEDAGOGIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
-            <text:p>9</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>KATIA APARECIDA SEGANFREDO</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>7M1234 (01/10/2022 - 17/12/2022), 7M1234 (04/02/2023 - 11/02/2023)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA057</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>PÓS-COLHEITA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
-            <text:p>9</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>SAMUEL MARIANO GISLON DA SILVA; VANESSA NEUMANN SILVA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N12 (03/10/2022 - 07/11/2022), 3N123 (04/10/2022 - 08/11/2022), 2N12 (21/11/2022 - 05/12/2022), 3N123 (22/11/2022 - 06/12/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCA252</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MANEJO E CONSERVAÇÃO DE SOLO E DA ÁGUA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>JOAO ALFREDO BRAIDA; JORGE LUIS MATTIAS</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6T123456 (07/10/2022 - 21/10/2022), 6T123456 (04/11/2022 - 16/12/2022), 6T123456 (03/02/2023 - 03/03/2023)</text:p>
@@ -10290,10 +8918,10 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <dc:date>2023-11-23T15:07:37.706633414</dc:date>
-    <meta:editing-duration>PT3M24S</meta:editing-duration>
-    <meta:editing-cycles>4</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="3108" meta:object-count="0"/>
+    <dc:date>2023-11-24T08:25:18.561048612</dc:date>
+    <meta:editing-duration>PT4M47S</meta:editing-duration>
+    <meta:editing-cycles>6</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="2652" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -10304,15 +8932,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">147912</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">200490</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">89916</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">199587</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="_IMPORTANTE_NOTE_QUE_HÁ_2_LINHAS_QUE_RESTRINGEM_OS_RESULTADOS_A__202311221415">
               <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">15</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">331</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -10321,7 +8949,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">5</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">327</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -10330,7 +8958,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">_IMPORTANTE_NOTE_QUE_HÁ_2_LINHAS_QUE_RESTRINGEM_OS_RESULTADOS_A__202311221415</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1836</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1551</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -10520,9 +9148,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2023-11-23">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2023-11-24">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="15:07:16.604954573">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="08:24:45.359103092">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
